--- a/expenses/expenses_spreadsheet.xlsx
+++ b/expenses/expenses_spreadsheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/expenses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/expenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4552903-1891-0E40-B711-E8CF7325254E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E1C04E-6528-F240-B009-3E358936BA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17200" xr2:uid="{5829F1C2-9979-114F-8680-3DA2BE165EF9}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17180" xr2:uid="{5829F1C2-9979-114F-8680-3DA2BE165EF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -47,10 +47,28 @@
     <t>price</t>
   </si>
   <si>
-    <t>plane ticket for frebruary</t>
-  </si>
-  <si>
-    <t>ticket paper</t>
+    <t>housing</t>
+  </si>
+  <si>
+    <t>printing  labels</t>
+  </si>
+  <si>
+    <t>dinner at brown's</t>
+  </si>
+  <si>
+    <t>plane ticket for february</t>
+  </si>
+  <si>
+    <t>wires</t>
+  </si>
+  <si>
+    <t>label paper 1</t>
+  </si>
+  <si>
+    <t>label paper 2</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -88,7 +106,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,9 +125,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -147,7 +165,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -253,7 +271,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -403,16 +421,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BBBFB3-F7EC-224E-AC46-FEBA387F0107}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -422,37 +444,88 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45624</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>418.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>375</v>
+      </c>
+      <c r="E3">
+        <f>SUM(C2:C8)</f>
+        <v>1063.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>45313</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>37.159999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>18.57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>37.159999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>45320</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>18.57</v>
+      <c r="C6">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>184.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>14.55</v>
       </c>
     </row>
   </sheetData>

--- a/expenses/expenses_spreadsheet.xlsx
+++ b/expenses/expenses_spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/expenses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E1C04E-6528-F240-B009-3E358936BA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F5F104-0CA4-5849-82CC-4FD57D7D647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17180" xr2:uid="{5829F1C2-9979-114F-8680-3DA2BE165EF9}"/>
+    <workbookView xWindow="6060" yWindow="740" windowWidth="28040" windowHeight="17160" xr2:uid="{5829F1C2-9979-114F-8680-3DA2BE165EF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>2 band aid tape</t>
+  </si>
+  <si>
+    <t>packaging tape</t>
+  </si>
+  <si>
+    <t>kirkland car battery</t>
   </si>
 </sst>
 </file>
@@ -421,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BBBFB3-F7EC-224E-AC46-FEBA387F0107}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,8 +478,8 @@
         <v>375</v>
       </c>
       <c r="E3">
-        <f>SUM(C2:C8)</f>
-        <v>1063.96</v>
+        <f>SUM(C2:C12)</f>
+        <v>1304.6900000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -526,6 +535,50 @@
       </c>
       <c r="C8">
         <v>14.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>25.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>25.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>179.19</v>
       </c>
     </row>
   </sheetData>
